--- a/doc/database_structure.xlsx
+++ b/doc/database_structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日志id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +414,30 @@
   </si>
   <si>
     <t>留言审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_workflow_log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -786,7 +806,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -797,7 +817,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
@@ -824,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -853,7 +873,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -864,7 +884,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -902,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -942,15 +962,15 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -961,7 +981,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>60</v>
@@ -988,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1033,7 +1053,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1041,109 +1061,109 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
         <v>75</v>
-      </c>
-      <c r="C47" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1155,13 +1175,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1251,7 +1276,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -1284,15 +1309,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1311,7 +1336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -1319,7 +1344,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -1346,8 +1371,11 @@
       <c r="G24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1355,7 +1383,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1363,19 +1391,120 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="B28" t="s">
         <v>33</v>
       </c>
       <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
         <v>50</v>
       </c>
     </row>

--- a/doc/database_structure.xlsx
+++ b/doc/database_structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,22 @@
   </si>
   <si>
     <t>message_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_boutique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否精贴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_popular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C48"/>
+  <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,320 +865,336 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>99</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
         <v>57</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>70</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>85</v>
       </c>
     </row>

--- a/doc/database_structure.xlsx
+++ b/doc/database_structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
   <si>
     <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>热门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C50"/>
+  <dimension ref="A2:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -897,304 +909,312 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>98</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
         <v>57</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>70</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="B41" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>85</v>
       </c>
     </row>
